--- a/Code/Results/Cases/Case_8_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.31512443639876</v>
+        <v>12.71463723388724</v>
       </c>
       <c r="C2">
-        <v>10.29844182483116</v>
+        <v>11.17883539558916</v>
       </c>
       <c r="D2">
-        <v>5.123756496782713</v>
+        <v>4.831305598643517</v>
       </c>
       <c r="E2">
-        <v>13.9758361059823</v>
+        <v>14.42738720608951</v>
       </c>
       <c r="F2">
-        <v>29.93420664339912</v>
+        <v>27.37515244242345</v>
       </c>
       <c r="G2">
-        <v>2.115856944991189</v>
+        <v>5.569800701438269</v>
       </c>
       <c r="H2">
-        <v>1.891973335714291</v>
+        <v>1.674077886237465</v>
       </c>
       <c r="I2">
-        <v>3.136845111303253</v>
+        <v>2.760079050664046</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.94301080317689</v>
+        <v>18.7847683108625</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>15.45320256196381</v>
       </c>
       <c r="M2">
-        <v>12.60805342476146</v>
+        <v>12.50544485714679</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.33479721238995</v>
+        <v>12.57306561249113</v>
       </c>
       <c r="P2">
-        <v>14.95017882427223</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>15.27511240773974</v>
+      </c>
+      <c r="R2">
+        <v>14.07798930664192</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.42721240784072</v>
+        <v>11.91426451335137</v>
       </c>
       <c r="C3">
-        <v>9.576324581821776</v>
+        <v>10.38453682937837</v>
       </c>
       <c r="D3">
-        <v>5.097570972543546</v>
+        <v>4.761680804419653</v>
       </c>
       <c r="E3">
-        <v>13.06725775805426</v>
+        <v>13.55733514270173</v>
       </c>
       <c r="F3">
-        <v>28.94578494517846</v>
+        <v>26.48907858165691</v>
       </c>
       <c r="G3">
-        <v>2.121310397455941</v>
+        <v>6.236516973341219</v>
       </c>
       <c r="H3">
-        <v>2.138792065252177</v>
+        <v>1.892538559485199</v>
       </c>
       <c r="I3">
-        <v>3.349748868286753</v>
+        <v>2.922345755050859</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>20.56573031757068</v>
+        <v>18.50650787786265</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15.39905714772823</v>
       </c>
       <c r="M3">
-        <v>11.76995561912059</v>
+        <v>12.13868928007465</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.46228194002089</v>
+        <v>11.78835507416412</v>
       </c>
       <c r="P3">
-        <v>15.00358489709315</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.42014413541632</v>
+      </c>
+      <c r="R3">
+        <v>14.15335964744366</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.88182924100781</v>
+        <v>11.39087402334705</v>
       </c>
       <c r="C4">
-        <v>9.111911587714529</v>
+        <v>9.871455068120769</v>
       </c>
       <c r="D4">
-        <v>5.080099064332964</v>
+        <v>4.71724200733044</v>
       </c>
       <c r="E4">
-        <v>12.4785341959781</v>
+        <v>12.9945319311722</v>
       </c>
       <c r="F4">
-        <v>28.32822842422576</v>
+        <v>25.93061138694075</v>
       </c>
       <c r="G4">
-        <v>2.124764149348212</v>
+        <v>6.659351518815273</v>
       </c>
       <c r="H4">
-        <v>2.295541401183598</v>
+        <v>2.031485264363928</v>
       </c>
       <c r="I4">
-        <v>3.485544452562053</v>
+        <v>3.026483625813318</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>20.33189799934635</v>
+        <v>18.33159505887039</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.35960723888006</v>
       </c>
       <c r="M4">
-        <v>11.22487339696805</v>
+        <v>11.92482919275793</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.90009389258535</v>
+        <v>11.27823937154876</v>
       </c>
       <c r="P4">
-        <v>15.03668489734812</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.86893281619352</v>
+      </c>
+      <c r="R4">
+        <v>14.19928262648802</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.64521884062331</v>
+        <v>11.16318033198442</v>
       </c>
       <c r="C5">
-        <v>8.924107426298523</v>
+        <v>9.662337849787006</v>
       </c>
       <c r="D5">
-        <v>5.072617313641048</v>
+        <v>4.699080650560986</v>
       </c>
       <c r="E5">
-        <v>12.2314492002253</v>
+        <v>12.75861073906512</v>
       </c>
       <c r="F5">
-        <v>28.05944963992209</v>
+        <v>25.68552216731064</v>
       </c>
       <c r="G5">
-        <v>2.126209371526803</v>
+        <v>6.836423830091137</v>
       </c>
       <c r="H5">
-        <v>2.361039203929096</v>
+        <v>2.089567560917445</v>
       </c>
       <c r="I5">
-        <v>3.545016501059368</v>
+        <v>3.073458870801008</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>20.22493458520373</v>
+        <v>18.24895879312912</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.33336176607654</v>
       </c>
       <c r="M5">
-        <v>10.99401754030982</v>
+        <v>11.83371966345785</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.66337075620874</v>
+        <v>11.06120947828323</v>
       </c>
       <c r="P5">
-        <v>15.04658935114693</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.63681220203295</v>
+      </c>
+      <c r="R5">
+        <v>14.21481382315331</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.59700268488697</v>
+        <v>11.11713056257596</v>
       </c>
       <c r="C6">
-        <v>8.900873490511636</v>
+        <v>9.635030703702634</v>
       </c>
       <c r="D6">
-        <v>5.071347082760122</v>
+        <v>4.696502558003341</v>
       </c>
       <c r="E6">
-        <v>12.19069697100602</v>
+        <v>12.71971299227853</v>
       </c>
       <c r="F6">
-        <v>27.99665676818539</v>
+        <v>25.62735752972337</v>
       </c>
       <c r="G6">
-        <v>2.126464062143375</v>
+        <v>6.867641608395271</v>
       </c>
       <c r="H6">
-        <v>2.372348694466844</v>
+        <v>2.099570639431103</v>
       </c>
       <c r="I6">
-        <v>3.558602913574462</v>
+        <v>3.085703013334355</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>20.19345834434984</v>
+        <v>18.22250051226552</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.31841273944568</v>
       </c>
       <c r="M6">
-        <v>10.95799699620568</v>
+        <v>11.81007245239618</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.62235091129532</v>
+        <v>11.02224847438934</v>
       </c>
       <c r="P6">
-        <v>15.0437722357118</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.59664649921997</v>
+      </c>
+      <c r="R6">
+        <v>14.21361023930056</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.8560281559301</v>
+        <v>11.35023697453972</v>
       </c>
       <c r="C7">
-        <v>9.131393418177398</v>
+        <v>9.841628646775941</v>
       </c>
       <c r="D7">
-        <v>5.080012577750345</v>
+        <v>4.721193062051645</v>
       </c>
       <c r="E7">
-        <v>12.47721781238019</v>
+        <v>13.00244370693007</v>
       </c>
       <c r="F7">
-        <v>28.27593440823357</v>
+        <v>25.78999361167751</v>
       </c>
       <c r="G7">
-        <v>2.124818733554432</v>
+        <v>6.718533008862636</v>
       </c>
       <c r="H7">
-        <v>2.297370657549098</v>
+        <v>2.034613680342394</v>
       </c>
       <c r="I7">
-        <v>3.496001676999859</v>
+        <v>3.041016597065334</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>20.29330217932562</v>
+        <v>18.24660264936322</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>15.29073812180653</v>
       </c>
       <c r="M7">
-        <v>11.21441104877689</v>
+        <v>11.86477906245701</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.89339405781881</v>
+        <v>11.24299342558822</v>
       </c>
       <c r="P7">
-        <v>15.02466868389709</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.85053236225828</v>
+      </c>
+      <c r="R7">
+        <v>14.17261906818173</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.98377533776147</v>
+        <v>12.36792565751388</v>
       </c>
       <c r="C8">
-        <v>10.08041802284739</v>
+        <v>10.78932209169281</v>
       </c>
       <c r="D8">
-        <v>5.115190288937593</v>
+        <v>4.820721490548622</v>
       </c>
       <c r="E8">
-        <v>13.67133619433935</v>
+        <v>14.16410498124411</v>
       </c>
       <c r="F8">
-        <v>29.53397219724425</v>
+        <v>26.72574993965703</v>
       </c>
       <c r="G8">
-        <v>2.117760405491524</v>
+        <v>6.066659405742475</v>
       </c>
       <c r="H8">
-        <v>1.977222370820114</v>
+        <v>1.754419355101344</v>
       </c>
       <c r="I8">
-        <v>3.221714854112621</v>
+        <v>2.837408243713182</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.76538848030821</v>
+        <v>18.48603526651631</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>15.27578995097092</v>
       </c>
       <c r="M8">
-        <v>12.31635327886075</v>
+        <v>12.22659233608549</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.03513188884834</v>
+        <v>12.22090002826662</v>
       </c>
       <c r="P8">
-        <v>14.95266953562491</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.9445432279707</v>
+      </c>
+      <c r="R8">
+        <v>14.03760803571431</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.06750689163101</v>
+        <v>14.20638992221498</v>
       </c>
       <c r="C9">
-        <v>11.74172363463108</v>
+        <v>12.5901248759026</v>
       </c>
       <c r="D9">
-        <v>5.172789678564325</v>
+        <v>4.988291087640379</v>
       </c>
       <c r="E9">
-        <v>15.76665291217756</v>
+        <v>16.17741088492878</v>
       </c>
       <c r="F9">
-        <v>31.98701457643512</v>
+        <v>28.85008492037962</v>
       </c>
       <c r="G9">
-        <v>2.104666437049384</v>
+        <v>4.58693500508121</v>
       </c>
       <c r="H9">
-        <v>1.729043254205406</v>
+        <v>1.877943873994089</v>
       </c>
       <c r="I9">
-        <v>2.707230598030772</v>
+        <v>2.519183344157155</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>21.73549772305462</v>
+        <v>19.16217605095632</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>15.39086209176756</v>
       </c>
       <c r="M9">
-        <v>14.24910382586418</v>
+        <v>13.1862812490934</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.06653092966881</v>
+        <v>14.0191759607179</v>
       </c>
       <c r="P9">
-        <v>14.83551581319654</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>16.92720841649328</v>
+      </c>
+      <c r="R9">
+        <v>13.84718991892534</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.40474343370154</v>
+        <v>15.31473646125511</v>
       </c>
       <c r="C10">
-        <v>12.81531292200938</v>
+        <v>13.52600001341227</v>
       </c>
       <c r="D10">
-        <v>5.212638713638129</v>
+        <v>5.142398019497255</v>
       </c>
       <c r="E10">
-        <v>16.62299120448971</v>
+        <v>17.02466463458806</v>
       </c>
       <c r="F10">
-        <v>33.48587563548104</v>
+        <v>29.67461695389993</v>
       </c>
       <c r="G10">
-        <v>2.095722135425101</v>
+        <v>4.904057045518758</v>
       </c>
       <c r="H10">
-        <v>2.10688852168293</v>
+        <v>2.199774761169868</v>
       </c>
       <c r="I10">
-        <v>2.599794870205286</v>
+        <v>2.767338464709615</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>22.27913919072698</v>
+        <v>19.25239892527715</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>15.16783152223527</v>
       </c>
       <c r="M10">
-        <v>15.49265276798291</v>
+        <v>13.61673144030606</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.13473224947288</v>
+        <v>15.06013003358092</v>
       </c>
       <c r="P10">
-        <v>14.68854957331359</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>17.90644034322222</v>
+      </c>
+      <c r="R10">
+        <v>13.57439440034553</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.80454998443941</v>
+        <v>15.57858696175363</v>
       </c>
       <c r="C11">
-        <v>12.82176512347449</v>
+        <v>13.03961980953821</v>
       </c>
       <c r="D11">
-        <v>5.294060322315661</v>
+        <v>5.422988127734218</v>
       </c>
       <c r="E11">
-        <v>12.48286605128869</v>
+        <v>12.96847516699416</v>
       </c>
       <c r="F11">
-        <v>32.27628619050464</v>
+        <v>27.62366978103509</v>
       </c>
       <c r="G11">
-        <v>2.093484927606807</v>
+        <v>8.385533763883117</v>
       </c>
       <c r="H11">
-        <v>2.9067276352342</v>
+        <v>2.953845615871764</v>
       </c>
       <c r="I11">
-        <v>2.691079560286294</v>
+        <v>2.820475286389303</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>21.29622476009124</v>
+        <v>17.86503078940058</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>14.0527738985918</v>
       </c>
       <c r="M11">
-        <v>15.76361745772391</v>
+        <v>12.66806935047312</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.11331156032526</v>
+        <v>15.08360581228114</v>
       </c>
       <c r="P11">
-        <v>14.13213940987935</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.76811956820457</v>
+      </c>
+      <c r="R11">
+        <v>13.007169224505</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.89791206318987</v>
+        <v>15.64829548632396</v>
       </c>
       <c r="C12">
-        <v>12.58306676057643</v>
+        <v>12.54331866105059</v>
       </c>
       <c r="D12">
-        <v>5.385996160331418</v>
+        <v>5.646576362308109</v>
       </c>
       <c r="E12">
-        <v>9.016912722090547</v>
+        <v>9.537253339973788</v>
       </c>
       <c r="F12">
-        <v>30.98642112858845</v>
+        <v>26.04184638182035</v>
       </c>
       <c r="G12">
-        <v>2.093234574954038</v>
+        <v>10.20239359740887</v>
       </c>
       <c r="H12">
-        <v>4.137737912722216</v>
+        <v>4.166510385182388</v>
       </c>
       <c r="I12">
-        <v>2.698633249532668</v>
+        <v>2.819053660038059</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.40041320767846</v>
+        <v>16.8962869911058</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>13.33433623368899</v>
       </c>
       <c r="M12">
-        <v>15.74908580097264</v>
+        <v>11.93640069877835</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.18118423493037</v>
+        <v>14.97136570309852</v>
       </c>
       <c r="P12">
-        <v>13.74041196148884</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.79093144479536</v>
+      </c>
+      <c r="R12">
+        <v>12.70920927806708</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.7386594821559</v>
+        <v>15.58430138188623</v>
       </c>
       <c r="C13">
-        <v>12.15706727649432</v>
+        <v>12.10163170184897</v>
       </c>
       <c r="D13">
-        <v>5.487763165132327</v>
+        <v>5.790119782319322</v>
       </c>
       <c r="E13">
-        <v>6.140216373201067</v>
+        <v>6.631148326850718</v>
       </c>
       <c r="F13">
-        <v>29.46212603301833</v>
+        <v>24.81727568565877</v>
       </c>
       <c r="G13">
-        <v>2.094543581118945</v>
+        <v>9.842902760330691</v>
       </c>
       <c r="H13">
-        <v>5.451303785205488</v>
+        <v>5.475381889066926</v>
       </c>
       <c r="I13">
-        <v>2.647161203847885</v>
+        <v>2.78413853600664</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.45573940349746</v>
+        <v>16.22135007959831</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.87828019503841</v>
       </c>
       <c r="M13">
-        <v>15.5051899372902</v>
+        <v>11.36485443727936</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.14706241545146</v>
+        <v>14.78587802475407</v>
       </c>
       <c r="P13">
-        <v>13.4365001629983</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.78550675226751</v>
+      </c>
+      <c r="R13">
+        <v>12.57210143618505</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.50604470864074</v>
+        <v>15.47241571518289</v>
       </c>
       <c r="C14">
-        <v>11.77309847598491</v>
+        <v>11.81070378922125</v>
       </c>
       <c r="D14">
-        <v>5.566101108106608</v>
+        <v>5.849323790196558</v>
       </c>
       <c r="E14">
-        <v>5.055802918136442</v>
+        <v>5.455128232460329</v>
       </c>
       <c r="F14">
-        <v>28.26427284403219</v>
+        <v>24.08691405171935</v>
       </c>
       <c r="G14">
-        <v>2.096154041813408</v>
+        <v>8.651775427789676</v>
       </c>
       <c r="H14">
-        <v>6.473095320774397</v>
+        <v>6.454553067690888</v>
       </c>
       <c r="I14">
-        <v>2.58634854595</v>
+        <v>2.746056369006387</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.76310860849541</v>
+        <v>15.85848622775399</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>12.65576145761885</v>
       </c>
       <c r="M14">
-        <v>15.22616429422902</v>
+        <v>11.0224581534742</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.66012609475193</v>
+        <v>14.61693127382005</v>
       </c>
       <c r="P14">
-        <v>13.26782957610876</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.35083972833743</v>
+      </c>
+      <c r="R14">
+        <v>12.53351138290564</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.38741203673419</v>
+        <v>15.40718159779654</v>
       </c>
       <c r="C15">
-        <v>11.6436978279846</v>
+        <v>11.74846840619962</v>
       </c>
       <c r="D15">
-        <v>5.584297198280548</v>
+        <v>5.843464963726224</v>
       </c>
       <c r="E15">
-        <v>4.990424626306245</v>
+        <v>5.363028675931351</v>
       </c>
       <c r="F15">
-        <v>27.9065381180006</v>
+        <v>23.95322082870024</v>
       </c>
       <c r="G15">
-        <v>2.096915237115585</v>
+        <v>7.977398753633815</v>
       </c>
       <c r="H15">
-        <v>6.713537029705035</v>
+        <v>6.69377286781735</v>
       </c>
       <c r="I15">
-        <v>2.559881844135836</v>
+        <v>2.730813330433693</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.57277400137088</v>
+        <v>15.80803451974898</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.63625269248189</v>
       </c>
       <c r="M15">
-        <v>15.1054859465854</v>
+        <v>10.95661016208888</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.27191149200265</v>
+        <v>14.55332680286914</v>
       </c>
       <c r="P15">
-        <v>13.23928554390166</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.988740142120605</v>
+      </c>
+      <c r="R15">
+        <v>12.54244387855221</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.85145239996042</v>
+        <v>15.07125234720318</v>
       </c>
       <c r="C16">
-        <v>11.26065627731518</v>
+        <v>11.73868861425968</v>
       </c>
       <c r="D16">
-        <v>5.541817263357935</v>
+        <v>5.64509954577418</v>
       </c>
       <c r="E16">
-        <v>4.854922166218975</v>
+        <v>5.328452151730296</v>
       </c>
       <c r="F16">
-        <v>27.477977051606</v>
+        <v>24.4290529312955</v>
       </c>
       <c r="G16">
-        <v>2.100457917446873</v>
+        <v>5.142688667192163</v>
       </c>
       <c r="H16">
-        <v>6.508309776155794</v>
+        <v>6.478438976525353</v>
       </c>
       <c r="I16">
-        <v>2.586669258321289</v>
+        <v>2.650256690421321</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.49145072053448</v>
+        <v>16.21361667706114</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.00405008720427</v>
       </c>
       <c r="M16">
-        <v>14.62398898206332</v>
+        <v>11.15908162912358</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10.09511198243042</v>
+        <v>14.32527961148927</v>
       </c>
       <c r="P16">
-        <v>13.35974309477557</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.922025200440864</v>
+      </c>
+      <c r="R16">
+        <v>12.71874089157076</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.56004710370182</v>
+        <v>14.8480064467499</v>
       </c>
       <c r="C17">
-        <v>11.17808644711496</v>
+        <v>11.84172293683362</v>
       </c>
       <c r="D17">
-        <v>5.465877317298745</v>
+        <v>5.486698387348412</v>
       </c>
       <c r="E17">
-        <v>5.083171314292293</v>
+        <v>5.642156568278161</v>
       </c>
       <c r="F17">
-        <v>27.80496841245716</v>
+        <v>25.08777712302612</v>
       </c>
       <c r="G17">
-        <v>2.102341804498441</v>
+        <v>4.375419268020512</v>
       </c>
       <c r="H17">
-        <v>5.76724133636993</v>
+        <v>5.727931137178832</v>
       </c>
       <c r="I17">
-        <v>2.660533657859248</v>
+        <v>2.606669450051216</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.79987462702619</v>
+        <v>16.67268521414038</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>13.38479471596363</v>
       </c>
       <c r="M17">
-        <v>14.40225204354753</v>
+        <v>11.45202029113697</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.7790194502741</v>
+        <v>14.20905096472489</v>
       </c>
       <c r="P17">
-        <v>13.53753982762821</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.65078123431645</v>
+      </c>
+      <c r="R17">
+        <v>12.88440891996877</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.47030757360511</v>
+        <v>14.74543089014428</v>
       </c>
       <c r="C18">
-        <v>11.33777727164939</v>
+        <v>12.12001523662595</v>
       </c>
       <c r="D18">
-        <v>5.36350292860917</v>
+        <v>5.3283422041274</v>
       </c>
       <c r="E18">
-        <v>6.88337316581401</v>
+        <v>7.40498773490827</v>
       </c>
       <c r="F18">
-        <v>28.85190139946401</v>
+        <v>26.17514228903787</v>
       </c>
       <c r="G18">
-        <v>2.102883213756658</v>
+        <v>4.17154536812599</v>
       </c>
       <c r="H18">
-        <v>4.49404453830169</v>
+        <v>4.442663989835487</v>
       </c>
       <c r="I18">
-        <v>2.671639949194515</v>
+        <v>2.589711793968914</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>19.50946036918375</v>
+        <v>17.34774978920455</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>13.90420346771116</v>
       </c>
       <c r="M18">
-        <v>14.39239149668268</v>
+        <v>11.9475401339976</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.30616877036592</v>
+        <v>14.22891868128962</v>
       </c>
       <c r="P18">
-        <v>13.81036571109627</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>12.19176406743426</v>
+      </c>
+      <c r="R18">
+        <v>13.09496032500634</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.5191710039423</v>
+        <v>14.73189198883778</v>
       </c>
       <c r="C19">
-        <v>11.71162706048656</v>
+        <v>12.57964927745948</v>
       </c>
       <c r="D19">
-        <v>5.273172413053752</v>
+        <v>5.194190723979827</v>
       </c>
       <c r="E19">
-        <v>10.34406443074112</v>
+        <v>10.7805481112606</v>
       </c>
       <c r="F19">
-        <v>30.3098472700912</v>
+        <v>27.51106536044582</v>
       </c>
       <c r="G19">
-        <v>2.102223156807676</v>
+        <v>4.041239219481865</v>
       </c>
       <c r="H19">
-        <v>2.952811956884858</v>
+        <v>3.031623475630712</v>
       </c>
       <c r="I19">
-        <v>2.648767822777686</v>
+        <v>2.612651379392298</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>20.43611658756521</v>
+        <v>18.13538599379266</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>14.48909620903493</v>
       </c>
       <c r="M19">
-        <v>14.54493075197271</v>
+        <v>12.55774932528641</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.39078470791635</v>
+        <v>14.36681334923201</v>
       </c>
       <c r="P19">
-        <v>14.15139233300723</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.27284855480845</v>
+      </c>
+      <c r="R19">
+        <v>13.34266415224206</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.00991475463478</v>
+        <v>15.03036514757729</v>
       </c>
       <c r="C20">
-        <v>12.58806263849072</v>
+        <v>13.46232260307486</v>
       </c>
       <c r="D20">
-        <v>5.204221648245905</v>
+        <v>5.09282475455136</v>
       </c>
       <c r="E20">
-        <v>16.38237622785928</v>
+        <v>16.76115596419828</v>
       </c>
       <c r="F20">
-        <v>32.95668592971779</v>
+        <v>29.60736686017087</v>
       </c>
       <c r="G20">
-        <v>2.098147270231689</v>
+        <v>4.005307040285052</v>
       </c>
       <c r="H20">
-        <v>2.004083613844903</v>
+        <v>2.116950968525091</v>
       </c>
       <c r="I20">
-        <v>2.522754323025762</v>
+        <v>2.723970991390947</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>22.02545639215556</v>
+        <v>19.28790896560152</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>15.26870906062876</v>
       </c>
       <c r="M20">
-        <v>15.15607511229807</v>
+        <v>13.54910968319599</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.8388020451629</v>
+        <v>14.84963293223526</v>
       </c>
       <c r="P20">
-        <v>14.68848592864943</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>17.66849825075099</v>
+      </c>
+      <c r="R20">
+        <v>13.6685324295379</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.02573764143392</v>
+        <v>15.61947061026985</v>
       </c>
       <c r="C21">
-        <v>13.45687265471863</v>
+        <v>13.57980365517491</v>
       </c>
       <c r="D21">
-        <v>5.226062180612238</v>
+        <v>5.290473243110164</v>
       </c>
       <c r="E21">
-        <v>17.83257276731308</v>
+        <v>18.33600955883883</v>
       </c>
       <c r="F21">
-        <v>34.44071036729407</v>
+        <v>29.111662968219</v>
       </c>
       <c r="G21">
-        <v>2.091062660156273</v>
+        <v>9.902269603529694</v>
       </c>
       <c r="H21">
-        <v>2.323716595708008</v>
+        <v>2.369319876684445</v>
       </c>
       <c r="I21">
-        <v>2.788076096891904</v>
+        <v>2.883984940482715</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.67375982592726</v>
+        <v>18.72693855056845</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.65326425778702</v>
       </c>
       <c r="M21">
-        <v>16.11765618929248</v>
+        <v>13.38048874132745</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.07025306456692</v>
+        <v>15.28716732036485</v>
       </c>
       <c r="P21">
-        <v>14.67286417011006</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>18.65544177062911</v>
+      </c>
+      <c r="R21">
+        <v>13.26580115672337</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.67152612982851</v>
+        <v>15.98563358395896</v>
       </c>
       <c r="C22">
-        <v>13.95908130415481</v>
+        <v>13.56892703508313</v>
       </c>
       <c r="D22">
-        <v>5.240601447661599</v>
+        <v>5.44938069620578</v>
       </c>
       <c r="E22">
-        <v>18.47420240621906</v>
+        <v>19.07000573987779</v>
       </c>
       <c r="F22">
-        <v>35.33704998865213</v>
+        <v>28.65040517826156</v>
       </c>
       <c r="G22">
-        <v>2.086569833129322</v>
+        <v>14.77685920662182</v>
       </c>
       <c r="H22">
-        <v>2.51791855359754</v>
+        <v>2.520655349965288</v>
       </c>
       <c r="I22">
-        <v>2.951745989441638</v>
+        <v>2.979573627868546</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>23.06597727758198</v>
+        <v>18.28896374548258</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>14.21462126954441</v>
       </c>
       <c r="M22">
-        <v>16.71216830733471</v>
+        <v>13.20882227270547</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.70410044837454</v>
+        <v>15.53151811600354</v>
       </c>
       <c r="P22">
-        <v>14.64909399919378</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>19.12358208765992</v>
+      </c>
+      <c r="R22">
+        <v>12.98941982961113</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.34866527448812</v>
+        <v>15.84227954039513</v>
       </c>
       <c r="C23">
-        <v>13.67449124681477</v>
+        <v>13.64637803880315</v>
       </c>
       <c r="D23">
-        <v>5.232384666207836</v>
+        <v>5.342488354337937</v>
       </c>
       <c r="E23">
-        <v>18.13251355742091</v>
+        <v>18.65956861492669</v>
       </c>
       <c r="F23">
-        <v>34.90735858859436</v>
+        <v>29.13648904715109</v>
       </c>
       <c r="G23">
-        <v>2.088926626532789</v>
+        <v>11.35495254667659</v>
       </c>
       <c r="H23">
-        <v>2.415527030574798</v>
+        <v>2.443506666089202</v>
       </c>
       <c r="I23">
-        <v>2.860678686468808</v>
+        <v>2.926971196591804</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.89590667348662</v>
+        <v>18.6688105576157</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.54980553311878</v>
       </c>
       <c r="M23">
-        <v>16.40355003278432</v>
+        <v>13.41897477421754</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.37120865309581</v>
+        <v>15.45763754507842</v>
       </c>
       <c r="P23">
-        <v>14.67535248961915</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>18.9023293764413</v>
+      </c>
+      <c r="R23">
+        <v>13.17818111625872</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.03801953278838</v>
+        <v>15.05241770029123</v>
       </c>
       <c r="C24">
-        <v>12.58996695531154</v>
+        <v>13.47916433465805</v>
       </c>
       <c r="D24">
-        <v>5.199663006635884</v>
+        <v>5.077714244497879</v>
       </c>
       <c r="E24">
-        <v>16.78936280564782</v>
+        <v>17.16459860951142</v>
       </c>
       <c r="F24">
-        <v>33.17624112019787</v>
+        <v>29.82186571688858</v>
       </c>
       <c r="G24">
-        <v>2.098041141855707</v>
+        <v>3.958918128708261</v>
       </c>
       <c r="H24">
-        <v>2.019290474902432</v>
+        <v>2.132109828918042</v>
       </c>
       <c r="I24">
-        <v>2.517131701328752</v>
+        <v>2.716229269330318</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>22.18496773966134</v>
+        <v>19.43425611975447</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>15.37931243172128</v>
       </c>
       <c r="M24">
-        <v>15.17459433724346</v>
+        <v>13.65996308049517</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.05659754319504</v>
+        <v>14.86898586116487</v>
       </c>
       <c r="P24">
-        <v>14.7549029160088</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>17.88707721702391</v>
+      </c>
+      <c r="R24">
+        <v>13.72164505382182</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.49975408000419</v>
+        <v>13.7250101139499</v>
       </c>
       <c r="C25">
-        <v>11.34215447113268</v>
+        <v>12.21169408200375</v>
       </c>
       <c r="D25">
-        <v>5.158925939163177</v>
+        <v>4.942296000560138</v>
       </c>
       <c r="E25">
-        <v>15.22849735198279</v>
+        <v>15.64895754529456</v>
       </c>
       <c r="F25">
-        <v>31.25565012141863</v>
+        <v>28.33099128642994</v>
       </c>
       <c r="G25">
-        <v>2.108184293554987</v>
+        <v>4.807949684301549</v>
       </c>
       <c r="H25">
-        <v>1.575955791110298</v>
+        <v>1.745490000797316</v>
       </c>
       <c r="I25">
-        <v>2.860825187831286</v>
+        <v>2.56756221626009</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>21.41225178309838</v>
+        <v>18.99119893501578</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>15.37112857455797</v>
       </c>
       <c r="M25">
-        <v>13.74045124536402</v>
+        <v>12.92633839649289</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.53471571711857</v>
+        <v>13.57756167422032</v>
       </c>
       <c r="P25">
-        <v>14.84559067323768</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>16.42357885931038</v>
+      </c>
+      <c r="R25">
+        <v>13.9040600794161</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
